--- a/annova.xlsx
+++ b/annova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monique\OneDrive\Documents\Github\pembasmi-hoaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF3D22-FEAA-406A-979D-6BCDDA96737E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62557828-E5D6-4166-9721-1CFC038689AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logreg_cv" sheetId="1" r:id="rId1"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1737,8 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3482,7 +3483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C487A77-FF25-4730-9C8C-2D0CCF94045A}">
   <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
